--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/10/seed3/result_data_KNN.xlsx
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>13.372</v>
+        <v>12.554</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.67</v>
+        <v>12.966</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.67</v>
+        <v>12.966</v>
       </c>
     </row>
     <row r="19">
